--- a/data/trans_orig/ACT_TRABAJO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en País Vasco</t>
+          <t>Actividad principal en el trabajo en País Vasco (tasa de respuesta: 95,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Andalucia</t>
+          <t>Actividad principal en el trabajo en Andalucia (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5576,7 +5576,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en C.Valenciana</t>
+          <t>Actividad principal en el trabajo en C.Valenciana (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Barcelona</t>
+          <t>Actividad principal en el trabajo en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ACT_TRABAJO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>8770</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>283</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>988</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6584</t>
+          <t>11173</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4555</t>
+          <t>7579</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9081</t>
+          <t>15866</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>7441</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5908</t>
+          <t>12761</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>10734</t>
+          <t>18614</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8191</t>
+          <t>13770</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>13563</t>
+          <t>25135</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>14,26%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16036</t>
+          <t>28112</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13265</t>
+          <t>23061</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18778</t>
+          <t>33364</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26682</t>
+          <t>45927</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>39614</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30082</t>
+          <t>52738</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>42718</t>
+          <t>74040</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>38003</t>
+          <t>65292</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>47275</t>
+          <t>82517</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>46,8%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15174</t>
+          <t>24371</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12323</t>
+          <t>19628</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18158</t>
+          <t>29653</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34088</t>
+          <t>55279</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30753</t>
+          <t>48014</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37473</t>
+          <t>62062</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>56,97%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>49262</t>
+          <t>79649</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>44550</t>
+          <t>71492</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>53681</t>
+          <t>88676</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>50,3%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38544</t>
+          <t>67373</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38544</t>
+          <t>67373</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38544</t>
+          <t>67373</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65142</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>65142</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>65142</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>103686</t>
+          <t>176303</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>103686</t>
+          <t>176303</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>103686</t>
+          <t>176303</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8315</t>
+          <t>16937</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6270</t>
+          <t>12065</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11238</t>
+          <t>24164</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>8651</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3075</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6797</t>
+          <t>14173</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>13054</t>
+          <t>25588</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>10244</t>
+          <t>18944</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>16411</t>
+          <t>32669</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40312</t>
+          <t>85077</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35137</t>
+          <t>73929</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45539</t>
+          <t>98462</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37005</t>
+          <t>71614</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>32382</t>
+          <t>61433</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42376</t>
+          <t>82383</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>77317</t>
+          <t>156690</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>70162</t>
+          <t>140513</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>85259</t>
+          <t>172008</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,55%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77056</t>
+          <t>160406</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71437</t>
+          <t>145334</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83402</t>
+          <t>175380</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91616</t>
+          <t>173189</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85629</t>
+          <t>157548</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>98124</t>
+          <t>185984</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>168672</t>
+          <t>333594</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>159828</t>
+          <t>312882</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>177255</t>
+          <t>353171</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>40,14%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92412</t>
+          <t>185002</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>86078</t>
+          <t>170407</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>98739</t>
+          <t>200355</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>91591</t>
+          <t>179019</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>85340</t>
+          <t>163438</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>98282</t>
+          <t>192787</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>184003</t>
+          <t>364021</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>175239</t>
+          <t>344581</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>193304</t>
+          <t>385427</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>43,8%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>218095</t>
+          <t>447421</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>218095</t>
+          <t>447421</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>218095</t>
+          <t>447421</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>224951</t>
+          <t>432472</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>224951</t>
+          <t>432472</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>224951</t>
+          <t>432472</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>443046</t>
+          <t>879893</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>443046</t>
+          <t>879893</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>443046</t>
+          <t>879893</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>6251</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>239</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2217</t>
+          <t>2939</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2313</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>7648</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8451</t>
+          <t>21877</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6276</t>
+          <t>15802</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11353</t>
+          <t>29341</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11025</t>
+          <t>26003</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8645</t>
+          <t>20151</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13975</t>
+          <t>34360</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>19476</t>
+          <t>47880</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>16212</t>
+          <t>38465</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>23404</t>
+          <t>58529</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24651</t>
+          <t>63063</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21448</t>
+          <t>53437</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28465</t>
+          <t>73631</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36172</t>
+          <t>92993</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31881</t>
+          <t>83091</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39993</t>
+          <t>105866</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>60823</t>
+          <t>156057</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>55774</t>
+          <t>141951</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>67068</t>
+          <t>172249</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>38,61%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44676</t>
+          <t>112306</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40837</t>
+          <t>102177</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48339</t>
+          <t>123200</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>61,54%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>55880</t>
+          <t>125884</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51440</t>
+          <t>114207</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>60446</t>
+          <t>137081</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>100557</t>
+          <t>238190</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>93879</t>
+          <t>222029</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>106397</t>
+          <t>253407</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>49,76%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>56,79%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>79157</t>
+          <t>200198</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>79157</t>
+          <t>200198</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79157</t>
+          <t>200198</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>104011</t>
+          <t>245980</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>104011</t>
+          <t>245980</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>104011</t>
+          <t>245980</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>183168</t>
+          <t>446178</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>183168</t>
+          <t>446178</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>183168</t>
+          <t>446178</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10443</t>
+          <t>23606</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7781</t>
+          <t>17713</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13802</t>
+          <t>31529</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>10032</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>6492</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8277</t>
+          <t>14791</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>16339</t>
+          <t>33639</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12912</t>
+          <t>26465</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>20058</t>
+          <t>42871</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55347</t>
+          <t>118126</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>49356</t>
+          <t>104190</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>61814</t>
+          <t>133942</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>52180</t>
+          <t>105058</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>46096</t>
+          <t>93530</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57980</t>
+          <t>120179</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>107527</t>
+          <t>223184</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>99199</t>
+          <t>202695</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>117349</t>
+          <t>244450</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>117743</t>
+          <t>251581</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>110623</t>
+          <t>232139</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>125639</t>
+          <t>270950</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>154470</t>
+          <t>312109</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>145560</t>
+          <t>293047</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>162634</t>
+          <t>329405</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>272212</t>
+          <t>563690</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>260503</t>
+          <t>537625</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>284104</t>
+          <t>592023</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>39,41%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>152263</t>
+          <t>321678</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>144362</t>
+          <t>301814</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>160266</t>
+          <t>341401</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>181559</t>
+          <t>360182</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>173041</t>
+          <t>341976</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>190310</t>
+          <t>380297</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>48,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>333822</t>
+          <t>681860</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>321759</t>
+          <t>654922</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>345814</t>
+          <t>708854</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>47,18%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>335796</t>
+          <t>714991</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>335796</t>
+          <t>714991</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>335796</t>
+          <t>714991</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>394104</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>394104</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>394104</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>729900</t>
+          <t>1502373</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>729900</t>
+          <t>1502373</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>729900</t>
+          <t>1502373</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>4795</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17349</t>
+          <t>17023</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7639</t>
+          <t>7162</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7529</t>
+          <t>7475</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21941</t>
+          <t>20569</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27315</t>
+          <t>26646</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48308</t>
+          <t>48687</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3404,12 +3404,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20796</t>
+          <t>20911</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35906</t>
+          <t>37004</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>53370</t>
+          <t>51664</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>79345</t>
+          <t>78526</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,66%</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63787</t>
+          <t>64192</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89863</t>
+          <t>91813</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>40,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>153046</t>
+          <t>154484</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>186260</t>
+          <t>187082</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>225862</t>
+          <t>228291</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>268009</t>
+          <t>271188</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>43,2%</t>
+          <t>43,71%</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90361</t>
+          <t>89408</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>119734</t>
+          <t>119342</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3610,12 +3610,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>175139</t>
+          <t>174306</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>207947</t>
+          <t>205327</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>274961</t>
+          <t>272634</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>316607</t>
+          <t>316453</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3680,12 +3680,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>51,01%</t>
         </is>
       </c>
     </row>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37561</t>
+          <t>36517</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95148</t>
+          <t>97089</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14801</t>
+          <t>14559</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>38229</t>
+          <t>36467</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>63625</t>
+          <t>64290</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>122444</t>
+          <t>121180</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -3938,12 +3938,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>305704</t>
+          <t>308188</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>921305</t>
+          <t>922620</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>65,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>173212</t>
+          <t>181000</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>453181</t>
+          <t>461876</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>532562</t>
+          <t>533543</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1283390</t>
+          <t>1365350</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>49,11%</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>234861</t>
+          <t>241399</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>547077</t>
+          <t>545253</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>633005</t>
+          <t>633134</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>991703</t>
+          <t>995909</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>914651</t>
+          <t>917758</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1518678</t>
+          <t>1544544</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>55,56%</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>213897</t>
+          <t>199056</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>481041</t>
+          <t>479511</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>201973</t>
+          <t>182501</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>388726</t>
+          <t>384645</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>493007</t>
+          <t>491197</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>838672</t>
+          <t>830900</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>29,89%</t>
         </is>
       </c>
     </row>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13565</t>
+          <t>12869</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11672</t>
+          <t>10651</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>5442</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>19237</t>
+          <t>19719</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38811</t>
+          <t>38691</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>68456</t>
+          <t>67748</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47829</t>
+          <t>47369</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73682</t>
+          <t>72652</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>93707</t>
+          <t>92643</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>131407</t>
+          <t>131179</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -4620,12 +4620,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>141497</t>
+          <t>140122</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>182831</t>
+          <t>183110</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>166311</t>
+          <t>168297</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>202882</t>
+          <t>203414</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>320147</t>
+          <t>323537</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>374975</t>
+          <t>376039</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>41,88%</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>215097</t>
+          <t>215559</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>258619</t>
+          <t>258851</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>56,75%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>174545</t>
+          <t>173223</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>212076</t>
+          <t>208792</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4783,12 +4783,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>47,22%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>398645</t>
+          <t>397789</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>457366</t>
+          <t>456381</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>50,83%</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56808</t>
+          <t>56928</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>109541</t>
+          <t>109449</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21707</t>
+          <t>22528</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>45567</t>
+          <t>44975</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>92118</t>
+          <t>91266</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>148062</t>
+          <t>148599</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5076,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>382320</t>
+          <t>383080</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1081766</t>
+          <t>1072888</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>269963</t>
+          <t>267602</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>577518</t>
+          <t>564341</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>700810</t>
+          <t>700974</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1565029</t>
+          <t>1668443</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>38,81%</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>459821</t>
+          <t>461980</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>788733</t>
+          <t>783611</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>987093</t>
+          <t>991156</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1444886</t>
+          <t>1453930</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>65,63%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1532223</t>
+          <t>1536805</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>2138838</t>
+          <t>2163727</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>50,34%</t>
         </is>
       </c>
     </row>
@@ -5302,12 +5302,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>475925</t>
+          <t>491352</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>838337</t>
+          <t>838906</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>492723</t>
+          <t>464044</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>794443</t>
+          <t>787256</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1139828</t>
+          <t>1109635</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1593016</t>
+          <t>1574097</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>36,62%</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14118</t>
+          <t>14173</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5107</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>5558</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>18034</t>
+          <t>17008</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8371,12 +8371,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -8399,12 +8399,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33234</t>
+          <t>32746</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50698</t>
+          <t>50783</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,3%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8434,12 +8434,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29815</t>
+          <t>30492</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46984</t>
+          <t>46402</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8449,12 +8449,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>56,41%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8469,12 +8469,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>69361</t>
+          <t>69079</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>93869</t>
+          <t>93367</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8484,12 +8484,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>58,86%</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18201</t>
+          <t>18798</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13528</t>
+          <t>13145</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6542</t>
+          <t>6702</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>23685</t>
+          <t>24953</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -8597,12 +8597,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,73%</t>
         </is>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13465</t>
+          <t>13084</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26886</t>
+          <t>26410</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -8640,12 +8640,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28550</t>
+          <t>28478</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45534</t>
+          <t>44470</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>45632</t>
+          <t>45239</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>67246</t>
+          <t>68061</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>42,91%</t>
         </is>
       </c>
     </row>
@@ -8855,12 +8855,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56170</t>
+          <t>57104</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78886</t>
+          <t>78183</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8870,12 +8870,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21230</t>
+          <t>21197</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35954</t>
+          <t>36175</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>81242</t>
+          <t>82705</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>107460</t>
+          <t>107993</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8940,12 +8940,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -8968,12 +8968,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>126818</t>
+          <t>127966</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>153818</t>
+          <t>155389</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8983,12 +8983,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>144498</t>
+          <t>145906</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>169862</t>
+          <t>170708</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9018,12 +9018,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9038,12 +9038,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>281134</t>
+          <t>281465</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>318349</t>
+          <t>318178</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9053,12 +9053,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>46,43%</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20649</t>
+          <t>20139</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34064</t>
+          <t>33657</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29399</t>
+          <t>29964</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45875</t>
+          <t>45690</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9131,12 +9131,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>53218</t>
+          <t>53373</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>74306</t>
+          <t>74426</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9166,12 +9166,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -9194,12 +9194,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>97462</t>
+          <t>96792</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>121762</t>
+          <t>121994</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9209,12 +9209,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -9229,12 +9229,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>108191</t>
+          <t>108738</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>132885</t>
+          <t>132583</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>211101</t>
+          <t>210526</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>247430</t>
+          <t>244975</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>35,75%</t>
         </is>
       </c>
     </row>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12179</t>
+          <t>12629</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23949</t>
+          <t>24562</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9439,12 +9439,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>14524</t>
+          <t>13957</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>27156</t>
+          <t>27186</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>29990</t>
+          <t>30032</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>48260</t>
+          <t>48009</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63166</t>
+          <t>63747</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>81188</t>
+          <t>82594</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9552,12 +9552,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>95345</t>
+          <t>94288</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>117130</t>
+          <t>117971</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9587,12 +9587,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -9607,12 +9607,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>163991</t>
+          <t>163697</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>193360</t>
+          <t>192966</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -9622,12 +9622,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>38,98%</t>
         </is>
       </c>
     </row>
@@ -9650,12 +9650,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7835</t>
+          <t>8167</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17098</t>
+          <t>18302</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9685,12 +9685,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17620</t>
+          <t>17532</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31125</t>
+          <t>32156</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9720,12 +9720,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28637</t>
+          <t>28158</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>44459</t>
+          <t>44580</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9735,12 +9735,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>107854</t>
+          <t>107102</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126766</t>
+          <t>126817</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9778,12 +9778,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -9798,12 +9798,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>115834</t>
+          <t>114187</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>138699</t>
+          <t>137352</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9813,12 +9813,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -9833,12 +9833,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>227301</t>
+          <t>227325</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>259199</t>
+          <t>257884</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>52,36%</t>
+          <t>52,1%</t>
         </is>
       </c>
     </row>
@@ -9993,12 +9993,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77871</t>
+          <t>78236</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>103607</t>
+          <t>105640</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10008,12 +10008,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>41440</t>
+          <t>41939</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>62213</t>
+          <t>62130</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10043,12 +10043,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10063,12 +10063,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>125791</t>
+          <t>125024</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>159266</t>
+          <t>158307</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10078,12 +10078,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -10106,12 +10106,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>236159</t>
+          <t>234560</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>274213</t>
+          <t>273488</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10121,12 +10121,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10141,12 +10141,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>283114</t>
+          <t>285832</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>322634</t>
+          <t>321982</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>532687</t>
+          <t>528841</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>586137</t>
+          <t>584456</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10191,12 +10191,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36380</t>
+          <t>37262</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>58117</t>
+          <t>59451</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10254,12 +10254,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>55174</t>
+          <t>54783</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>78350</t>
+          <t>78527</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>96409</t>
+          <t>97770</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>127673</t>
+          <t>129294</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10304,12 +10304,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -10332,12 +10332,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>227152</t>
+          <t>226985</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>263320</t>
+          <t>263969</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10347,12 +10347,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10367,12 +10367,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>261261</t>
+          <t>265528</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>301785</t>
+          <t>300664</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10382,12 +10382,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>42,8%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>502232</t>
+          <t>502827</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>554327</t>
+          <t>554421</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>41,41%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ACT_TRABAJO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en País Vasco (tasa de respuesta: 95,41%)</t>
+          <t>Actividad principal en el trabajo en Andalucia (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>13374</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8770</t>
+          <t>22843</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8137</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>1,9%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>988</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>17486</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>10157</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>9450</t>
+          <t>27325</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11173</t>
+          <t>45572</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7579</t>
+          <t>34275</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15866</t>
+          <t>58808</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7441</t>
+          <t>31072</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>23217</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12761</t>
+          <t>40231</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>18614</t>
+          <t>76644</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>13770</t>
+          <t>62316</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>25135</t>
+          <t>91118</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28112</t>
+          <t>85510</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23061</t>
+          <t>71779</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33364</t>
+          <t>101098</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45927</t>
+          <t>185667</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39614</t>
+          <t>169786</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52738</t>
+          <t>203077</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>74040</t>
+          <t>271178</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>65292</t>
+          <t>250399</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>82517</t>
+          <t>295936</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>43,28%</t>
         </is>
       </c>
     </row>
@@ -1070,107 +1070,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24371</t>
+          <t>110725</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19628</t>
+          <t>96028</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29653</t>
+          <t>127003</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>55279</t>
+          <t>207803</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48014</t>
+          <t>189839</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>62062</t>
+          <t>222980</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>48,48%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>482</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>79649</t>
+          <t>318528</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>71492</t>
+          <t>295465</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>88676</t>
+          <t>341659</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>46,58%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>49,96%</t>
         </is>
       </c>
     </row>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67373</t>
+          <t>255181</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67373</t>
+          <t>255181</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67373</t>
+          <t>255181</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1218,22 +1218,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>690</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>108930</t>
+          <t>428655</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>108930</t>
+          <t>428655</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>108930</t>
+          <t>428655</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>980</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>176303</t>
+          <t>683836</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>176303</t>
+          <t>683836</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>176303</t>
+          <t>683836</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16937</t>
+          <t>83510</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12065</t>
+          <t>65299</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24164</t>
+          <t>105508</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8651</t>
+          <t>29192</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>20220</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14173</t>
+          <t>40316</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>25588</t>
+          <t>112701</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>18944</t>
+          <t>91575</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>32669</t>
+          <t>135831</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85077</t>
+          <t>308526</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73929</t>
+          <t>274814</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98462</t>
+          <t>345819</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>71614</t>
+          <t>234060</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>61433</t>
+          <t>209764</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>82383</t>
+          <t>260320</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>156690</t>
+          <t>542586</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>140513</t>
+          <t>497265</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>172008</t>
+          <t>585763</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -1526,107 +1526,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>160406</t>
+          <t>480802</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145334</t>
+          <t>440330</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>175380</t>
+          <t>520005</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>860</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>173189</t>
+          <t>647310</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>157548</t>
+          <t>613526</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>185984</t>
+          <t>680916</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>333594</t>
+          <t>1128112</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>312882</t>
+          <t>1074840</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>353171</t>
+          <t>1180941</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>42,32%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>46,49%</t>
         </is>
       </c>
     </row>
@@ -1639,107 +1639,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>185002</t>
+          <t>404637</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>170407</t>
+          <t>368657</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>200355</t>
+          <t>444864</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>435</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>179019</t>
+          <t>352038</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>163438</t>
+          <t>322457</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>192787</t>
+          <t>382870</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>364021</t>
+          <t>756675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>344581</t>
+          <t>712221</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>385427</t>
+          <t>808927</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>31,85%</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>447421</t>
+          <t>1277475</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>447421</t>
+          <t>1277475</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>447421</t>
+          <t>1277475</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1787,22 +1787,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>432472</t>
+          <t>1262599</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>432472</t>
+          <t>1262599</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>432472</t>
+          <t>1262599</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>879893</t>
+          <t>2540074</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>879893</t>
+          <t>2540074</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>879893</t>
+          <t>2540074</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>7736</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6251</t>
+          <t>16746</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>5075</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2939</t>
+          <t>11400</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>12811</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>6834</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>7648</t>
+          <t>22746</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1982,107 +1982,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21877</t>
+          <t>60365</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15802</t>
+          <t>46688</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29341</t>
+          <t>80678</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26003</t>
+          <t>68797</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20151</t>
+          <t>56018</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34360</t>
+          <t>84055</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>139</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>47880</t>
+          <t>129162</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>38465</t>
+          <t>108840</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>58529</t>
+          <t>153258</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>15,32%</t>
         </is>
       </c>
     </row>
@@ -2095,107 +2095,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>63063</t>
+          <t>182092</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53437</t>
+          <t>157900</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73631</t>
+          <t>205069</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>92993</t>
+          <t>210239</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>83091</t>
+          <t>191166</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>105866</t>
+          <t>230101</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>478</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>156057</t>
+          <t>392331</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>141951</t>
+          <t>365673</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>172249</t>
+          <t>423090</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>42,3%</t>
         </is>
       </c>
     </row>
@@ -2208,107 +2208,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>112306</t>
+          <t>255370</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>102177</t>
+          <t>230999</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123200</t>
+          <t>280092</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,54%</t>
+          <t>55,4%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>125884</t>
+          <t>210427</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>114207</t>
+          <t>190176</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>137081</t>
+          <t>228499</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>520</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>238190</t>
+          <t>465797</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>222029</t>
+          <t>433143</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>253407</t>
+          <t>494923</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>56,79%</t>
+          <t>49,49%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>200198</t>
+          <t>505563</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>200198</t>
+          <t>505563</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>200198</t>
+          <t>505563</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2356,22 +2356,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>245980</t>
+          <t>494538</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>245980</t>
+          <t>494538</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>245980</t>
+          <t>494538</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>446178</t>
+          <t>1000101</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>446178</t>
+          <t>1000101</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>446178</t>
+          <t>1000101</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2438,107 +2438,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23606</t>
+          <t>104620</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17713</t>
+          <t>84069</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31529</t>
+          <t>129940</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10032</t>
+          <t>38379</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6492</t>
+          <t>27950</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14791</t>
+          <t>50568</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>133</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>33639</t>
+          <t>142999</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>26465</t>
+          <t>118159</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>42871</t>
+          <t>170755</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -2551,107 +2551,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>118126</t>
+          <t>414463</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>104190</t>
+          <t>372972</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>133942</t>
+          <t>461686</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>433</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>105058</t>
+          <t>333929</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>93530</t>
+          <t>303572</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>120179</t>
+          <t>366006</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>223184</t>
+          <t>748392</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>202695</t>
+          <t>698067</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>244450</t>
+          <t>804522</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>19,05%</t>
         </is>
       </c>
     </row>
@@ -2664,107 +2664,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>251581</t>
+          <t>748405</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>232139</t>
+          <t>697961</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>270950</t>
+          <t>797415</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>312109</t>
+          <t>1043216</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>293047</t>
+          <t>1001638</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>329405</t>
+          <t>1085495</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>2147</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>563690</t>
+          <t>1791620</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>537625</t>
+          <t>1730408</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>592023</t>
+          <t>1859293</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>44,02%</t>
         </is>
       </c>
     </row>
@@ -2777,107 +2777,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>752</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>321678</t>
+          <t>770732</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>301814</t>
+          <t>722599</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>341401</t>
+          <t>818175</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>360182</t>
+          <t>770268</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>341976</t>
+          <t>729843</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>380297</t>
+          <t>813354</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>681860</t>
+          <t>1541000</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>654922</t>
+          <t>1472986</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>708854</t>
+          <t>1606418</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>38,03%</t>
         </is>
       </c>
     </row>
@@ -2890,22 +2890,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>714991</t>
+          <t>2038219</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>714991</t>
+          <t>2038219</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>714991</t>
+          <t>2038219</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2925,22 +2925,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>2985</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>787382</t>
+          <t>2185792</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>787382</t>
+          <t>2185792</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>787382</t>
+          <t>2185792</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2960,22 +2960,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4865</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1502373</t>
+          <t>4224011</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1502373</t>
+          <t>4224011</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1502373</t>
+          <t>4224011</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Andalucia (tasa de respuesta: 99,43%)</t>
+          <t>Actividad principal en el trabajo en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3246,107 +3246,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9914</t>
+          <t>6428</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17023</t>
+          <t>14173</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3392</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7162</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>13307</t>
+          <t>9191</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7475</t>
+          <t>5558</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20569</t>
+          <t>17008</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -3359,107 +3359,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36634</t>
+          <t>42430</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26646</t>
+          <t>32746</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48687</t>
+          <t>50783</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>56,32%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28392</t>
+          <t>38757</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20911</t>
+          <t>30492</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37004</t>
+          <t>46402</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>186</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>65026</t>
+          <t>81187</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>51664</t>
+          <t>69079</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>78526</t>
+          <t>93367</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>58,86%</t>
         </is>
       </c>
     </row>
@@ -3472,107 +3472,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77270</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64192</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91813</t>
+          <t>18798</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>169686</t>
+          <t>5202</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>154484</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>187082</t>
+          <t>13145</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>246956</t>
+          <t>12773</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>228291</t>
+          <t>6702</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>271188</t>
+          <t>24953</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>15,73%</t>
         </is>
       </c>
     </row>
@@ -3585,107 +3585,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>104380</t>
+          <t>18906</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89408</t>
+          <t>13084</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>119342</t>
+          <t>26410</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>190717</t>
+          <t>36572</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>174306</t>
+          <t>28478</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>205327</t>
+          <t>44470</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>52,35%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>295098</t>
+          <t>55478</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>272634</t>
+          <t>45239</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>316453</t>
+          <t>68061</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>42,91%</t>
         </is>
       </c>
     </row>
@@ -3698,22 +3698,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228198</t>
+          <t>75335</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>228198</t>
+          <t>75335</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228198</t>
+          <t>75335</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3733,22 +3733,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>392188</t>
+          <t>83293</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>392188</t>
+          <t>83293</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>392188</t>
+          <t>83293</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3768,22 +3768,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>385</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>620386</t>
+          <t>158628</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>620386</t>
+          <t>158628</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>620386</t>
+          <t>158628</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3815,107 +3815,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70283</t>
+          <t>66078</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36517</t>
+          <t>57104</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>97089</t>
+          <t>78183</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25020</t>
+          <t>28079</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14559</t>
+          <t>21197</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36467</t>
+          <t>36175</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>198</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>95304</t>
+          <t>94158</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>64290</t>
+          <t>82705</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>121180</t>
+          <t>107993</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -3928,107 +3928,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>507433</t>
+          <t>140737</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>308188</t>
+          <t>127966</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>922620</t>
+          <t>155389</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,94%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>274386</t>
+          <t>158340</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>181000</t>
+          <t>145906</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>461876</t>
+          <t>170708</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>781819</t>
+          <t>299077</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>533543</t>
+          <t>281465</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1365350</t>
+          <t>318178</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>46,43%</t>
         </is>
       </c>
     </row>
@@ -4041,107 +4041,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>436973</t>
+          <t>26481</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>241399</t>
+          <t>20139</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>545253</t>
+          <t>33657</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>769819</t>
+          <t>36984</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>633134</t>
+          <t>29964</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>995909</t>
+          <t>45690</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,74%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1206792</t>
+          <t>63465</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>917758</t>
+          <t>53373</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1544544</t>
+          <t>74426</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -4154,107 +4154,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>384430</t>
+          <t>108973</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>199056</t>
+          <t>96792</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>479511</t>
+          <t>121994</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>311841</t>
+          <t>119623</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>182501</t>
+          <t>108738</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>384645</t>
+          <t>132583</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>696271</t>
+          <t>228596</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>491197</t>
+          <t>210526</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>830900</t>
+          <t>244975</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>35,75%</t>
         </is>
       </c>
     </row>
@@ -4267,22 +4267,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>758</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1399120</t>
+          <t>342270</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1399120</t>
+          <t>342270</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1399120</t>
+          <t>342270</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4302,22 +4302,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>780</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1381066</t>
+          <t>343027</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1381066</t>
+          <t>343027</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1381066</t>
+          <t>343027</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4337,22 +4337,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2780186</t>
+          <t>685296</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2780186</t>
+          <t>685296</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2780186</t>
+          <t>685296</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4384,107 +4384,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5495</t>
+          <t>17598</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>12629</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12869</t>
+          <t>24562</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4794</t>
+          <t>20329</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>13957</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10651</t>
+          <t>27186</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>10289</t>
+          <t>37928</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5442</t>
+          <t>30032</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>19719</t>
+          <t>48009</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -4497,107 +4497,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51070</t>
+          <t>72165</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38691</t>
+          <t>63747</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67748</t>
+          <t>82594</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59305</t>
+          <t>106009</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47369</t>
+          <t>94288</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>72652</t>
+          <t>117971</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>482</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>110375</t>
+          <t>178174</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>92643</t>
+          <t>163697</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>131179</t>
+          <t>192966</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>38,98%</t>
         </is>
       </c>
     </row>
@@ -4610,107 +4610,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>162412</t>
+          <t>11938</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>140122</t>
+          <t>8167</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>183110</t>
+          <t>18302</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>185329</t>
+          <t>23533</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>168297</t>
+          <t>17532</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>203414</t>
+          <t>32156</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>347741</t>
+          <t>35471</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>323537</t>
+          <t>28158</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>376039</t>
+          <t>44580</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -4723,107 +4723,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>236774</t>
+          <t>117172</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>215559</t>
+          <t>107102</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>258851</t>
+          <t>126817</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>53,53%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>192699</t>
+          <t>126275</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>173223</t>
+          <t>114187</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>208792</t>
+          <t>137352</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>711</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>429473</t>
+          <t>243447</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>397789</t>
+          <t>227325</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>456381</t>
+          <t>257884</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>45,92%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>52,1%</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>455751</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>455751</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>455751</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4871,22 +4871,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>743</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>442127</t>
+          <t>276146</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>442127</t>
+          <t>276146</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>442127</t>
+          <t>276146</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>897878</t>
+          <t>495019</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>897878</t>
+          <t>495019</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>897878</t>
+          <t>495019</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4953,107 +4953,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>85692</t>
+          <t>90105</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56928</t>
+          <t>78236</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>109449</t>
+          <t>105640</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33207</t>
+          <t>51171</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22528</t>
+          <t>41939</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>44975</t>
+          <t>62130</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>309</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>118899</t>
+          <t>141276</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>91266</t>
+          <t>125024</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>148599</t>
+          <t>158307</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -5066,107 +5066,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>593</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>595137</t>
+          <t>255332</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>383080</t>
+          <t>234560</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1072888</t>
+          <t>273488</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>747</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>362083</t>
+          <t>303106</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>267602</t>
+          <t>285832</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>564341</t>
+          <t>321982</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>957220</t>
+          <t>558438</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>700974</t>
+          <t>528841</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>1668443</t>
+          <t>584456</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -5179,107 +5179,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>676655</t>
+          <t>45989</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>461980</t>
+          <t>37262</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>783611</t>
+          <t>59451</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1124834</t>
+          <t>65719</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>991156</t>
+          <t>54783</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1453930</t>
+          <t>78527</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>253</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>1801489</t>
+          <t>111708</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1536805</t>
+          <t>97770</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>2163727</t>
+          <t>129294</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -5292,107 +5292,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>653</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>725584</t>
+          <t>245051</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>491352</t>
+          <t>226985</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>838906</t>
+          <t>263969</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>735</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>695258</t>
+          <t>282470</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>464044</t>
+          <t>265528</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>787256</t>
+          <t>300664</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>42,8%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1420842</t>
+          <t>527521</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1109635</t>
+          <t>502827</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1574097</t>
+          <t>554421</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>41,41%</t>
         </is>
       </c>
     </row>
@@ -5405,22 +5405,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2083069</t>
+          <t>636478</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2083069</t>
+          <t>636478</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2083069</t>
+          <t>636478</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5440,22 +5440,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2215382</t>
+          <t>702465</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2215382</t>
+          <t>702465</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2215382</t>
+          <t>702465</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5475,22 +5475,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4865</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4298450</t>
+          <t>1338943</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4298450</t>
+          <t>1338943</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4298450</t>
+          <t>1338943</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Barcelona (tasa de respuesta: 99,52%)</t>
+          <t>Actividad principal en el trabajo en País Vasco (tasa de respuesta: 95,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8276,107 +8276,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6428</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3155</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14173</t>
+          <t>8770</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>283</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>988</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9191</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5558</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17008</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -8389,107 +8389,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42430</t>
+          <t>11173</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32746</t>
+          <t>7579</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50783</t>
+          <t>15866</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,41%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38757</t>
+          <t>7441</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30492</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46402</t>
+          <t>12761</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>81187</t>
+          <t>18614</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>69079</t>
+          <t>13770</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>93367</t>
+          <t>25135</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>14,26%</t>
         </is>
       </c>
     </row>
@@ -8502,107 +8502,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>28112</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3075</t>
+          <t>23061</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18798</t>
+          <t>33364</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>45927</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>39614</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13145</t>
+          <t>52738</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>253</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>12773</t>
+          <t>74040</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6702</t>
+          <t>65292</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>24953</t>
+          <t>82517</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>46,8%</t>
         </is>
       </c>
     </row>
@@ -8615,107 +8615,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18906</t>
+          <t>24371</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13084</t>
+          <t>19628</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26410</t>
+          <t>29653</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>204</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36572</t>
+          <t>55279</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28478</t>
+          <t>48014</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44470</t>
+          <t>62062</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>56,97%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>284</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>55478</t>
+          <t>79649</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>45239</t>
+          <t>71492</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>68061</t>
+          <t>88676</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>50,3%</t>
         </is>
       </c>
     </row>
@@ -8728,22 +8728,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75335</t>
+          <t>67373</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75335</t>
+          <t>67373</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75335</t>
+          <t>67373</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8763,22 +8763,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>83293</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>83293</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>83293</t>
+          <t>108930</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8798,22 +8798,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>606</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>158628</t>
+          <t>176303</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>158628</t>
+          <t>176303</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>158628</t>
+          <t>176303</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8845,107 +8845,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66078</t>
+          <t>16937</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57104</t>
+          <t>12065</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78183</t>
+          <t>24164</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28079</t>
+          <t>8651</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21197</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36175</t>
+          <t>14173</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>94158</t>
+          <t>25588</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>82705</t>
+          <t>18944</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>107993</t>
+          <t>32669</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -8958,107 +8958,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>140737</t>
+          <t>85077</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>127966</t>
+          <t>73929</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>155389</t>
+          <t>98462</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>201</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>158340</t>
+          <t>71614</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>145906</t>
+          <t>61433</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>170708</t>
+          <t>82383</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>299077</t>
+          <t>156690</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>281465</t>
+          <t>140513</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>318178</t>
+          <t>172008</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>19,55%</t>
         </is>
       </c>
     </row>
@@ -9071,107 +9071,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>470</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26481</t>
+          <t>160406</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20139</t>
+          <t>145334</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33657</t>
+          <t>175380</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>537</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36984</t>
+          <t>173189</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29964</t>
+          <t>157548</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45690</t>
+          <t>185984</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>63465</t>
+          <t>333594</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>53373</t>
+          <t>312882</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>74426</t>
+          <t>353171</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>40,14%</t>
         </is>
       </c>
     </row>
@@ -9184,107 +9184,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>108973</t>
+          <t>185002</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96792</t>
+          <t>170407</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>121994</t>
+          <t>200355</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>541</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>119623</t>
+          <t>179019</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>108738</t>
+          <t>163438</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>132583</t>
+          <t>192787</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>228596</t>
+          <t>364021</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>210526</t>
+          <t>344581</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>244975</t>
+          <t>385427</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>43,8%</t>
         </is>
       </c>
     </row>
@@ -9297,22 +9297,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>342270</t>
+          <t>447421</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>342270</t>
+          <t>447421</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>342270</t>
+          <t>447421</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9332,22 +9332,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>343027</t>
+          <t>432472</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>343027</t>
+          <t>432472</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>343027</t>
+          <t>432472</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9367,22 +9367,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>685296</t>
+          <t>879893</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>685296</t>
+          <t>879893</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>685296</t>
+          <t>879893</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9414,107 +9414,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17598</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12629</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24562</t>
+          <t>6251</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20329</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13957</t>
+          <t>239</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>27186</t>
+          <t>2939</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>37928</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>30032</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>48009</t>
+          <t>7648</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -9527,107 +9527,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72165</t>
+          <t>21877</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63747</t>
+          <t>15802</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82594</t>
+          <t>29341</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>106009</t>
+          <t>26003</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94288</t>
+          <t>20151</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>117971</t>
+          <t>34360</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>178174</t>
+          <t>47880</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>163697</t>
+          <t>38465</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>192966</t>
+          <t>58529</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -9640,107 +9640,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11938</t>
+          <t>63063</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8167</t>
+          <t>53437</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18302</t>
+          <t>73631</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23533</t>
+          <t>92993</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17532</t>
+          <t>83091</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32156</t>
+          <t>105866</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>35471</t>
+          <t>156057</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28158</t>
+          <t>141951</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>44580</t>
+          <t>172249</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>38,61%</t>
         </is>
       </c>
     </row>
@@ -9753,107 +9753,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>117172</t>
+          <t>112306</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>107102</t>
+          <t>102177</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126817</t>
+          <t>123200</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>61,54%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>335</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>126275</t>
+          <t>125884</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>114187</t>
+          <t>114207</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>137352</t>
+          <t>137081</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>612</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>243447</t>
+          <t>238190</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>227325</t>
+          <t>222029</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>257884</t>
+          <t>253407</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>49,18%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>49,76%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>56,79%</t>
         </is>
       </c>
     </row>
@@ -9866,22 +9866,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>200198</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>200198</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>200198</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -9901,22 +9901,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>643</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>276146</t>
+          <t>245980</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>276146</t>
+          <t>245980</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>276146</t>
+          <t>245980</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -9936,22 +9936,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>495019</t>
+          <t>446178</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>495019</t>
+          <t>446178</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>495019</t>
+          <t>446178</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -9983,107 +9983,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>90105</t>
+          <t>23606</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78236</t>
+          <t>17713</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>105640</t>
+          <t>31529</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51171</t>
+          <t>10032</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>41939</t>
+          <t>6492</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>62130</t>
+          <t>14791</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>141276</t>
+          <t>33639</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>125024</t>
+          <t>26465</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>158307</t>
+          <t>42871</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -10096,107 +10096,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>255332</t>
+          <t>118126</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>234560</t>
+          <t>104190</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>273488</t>
+          <t>133942</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>303106</t>
+          <t>105058</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>285832</t>
+          <t>93530</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>321982</t>
+          <t>120179</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>605</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>558438</t>
+          <t>223184</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>528841</t>
+          <t>202695</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>584456</t>
+          <t>244450</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>41,71%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -10209,107 +10209,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>718</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45989</t>
+          <t>251581</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>37262</t>
+          <t>232139</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>59451</t>
+          <t>270950</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>926</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>65719</t>
+          <t>312109</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54783</t>
+          <t>293047</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>78527</t>
+          <t>329405</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>111708</t>
+          <t>563690</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>97770</t>
+          <t>537625</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>129294</t>
+          <t>592023</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>39,41%</t>
         </is>
       </c>
     </row>
@@ -10322,107 +10322,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>899</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>245051</t>
+          <t>321678</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>226985</t>
+          <t>301814</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>263969</t>
+          <t>341401</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>282470</t>
+          <t>360182</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>265528</t>
+          <t>341976</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>300664</t>
+          <t>380297</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>48,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>527521</t>
+          <t>681860</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>502827</t>
+          <t>654922</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>554421</t>
+          <t>708854</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>47,18%</t>
         </is>
       </c>
     </row>
@@ -10435,22 +10435,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>636478</t>
+          <t>714991</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>636478</t>
+          <t>714991</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>636478</t>
+          <t>714991</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10470,22 +10470,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>702465</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>702465</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>702465</t>
+          <t>787382</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10505,22 +10505,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1338943</t>
+          <t>1502373</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1338943</t>
+          <t>1502373</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1338943</t>
+          <t>1502373</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
